--- a/Master Sheet.xlsx
+++ b/Master Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>https://play.google.com/store/apps/details?id=com.astroshaadi.customer</t>
   </si>
@@ -259,6 +259,99 @@
   </si>
   <si>
     <t>https://play.google.com/store/apps/details?id=ai.photoeditor.artgenerator</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ucmqed.peqqus</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.upticker.app.v2</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.digitaljungle</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.advanced.voiceChanger</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.app.malgopay</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.machi.call.ChatLiveCall.mochi</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=co.sansa.vhgmw</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.astropower.user</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.fotoapp.perfectme.bodyshape.photoeditor.bodyeditor</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.mb.hexasort.coinstackgame</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=antitheftalarm.donttouchmyphone.antipro</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=dailybend.bend.stretch.flexibility.fitness.exercise.back</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=photo.video.maker.editor</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=pl.idreams.SkyForceReloaded</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.fakecall.prankcall.videocall.voicechat</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.aamdhane.app</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.idramas.tv</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.trackmyphone.find.myphone.phonelocator.antitheft</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.earthvibe.wall</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.eventbeep.android</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.wowchat.wallet</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.smartearn.gpstracker</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=xyz.multipl.multipl</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.live.map.earth.app</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.appspelago.peekababy</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.qr.cvn.barcode.scanner.fhnn</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.happyverse.spellinggame</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.prank.crazy.trickly.aos</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=grocery.beldara.fresh</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.tnibro</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.navigation.offlinemaps.radar.fortravel</t>
   </si>
 </sst>
 </file>
@@ -577,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
@@ -985,6 +1078,161 @@
         <v>79</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Master Sheet.xlsx
+++ b/Master Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t>https://play.google.com/store/apps/details?id=com.astroshaadi.customer</t>
   </si>
@@ -352,6 +352,477 @@
   </si>
   <si>
     <t>https://play.google.com/store/apps/details?id=com.navigation.offlinemaps.radar.fortravel</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.lta.translatorapp.worldlanguage</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.mobi.beetsshort</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=app.litflare.me</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.movies.shorts.daily.reel.tracker.tektok</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.translater.language.translator.smarttranslation</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ssonstudio.financial.loancalculator</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.anilymemax.max</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.xxxmatehk.somate</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.story.xingyuedu</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.moneytracker.loan.currency</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.tszz.gpen</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.goatgames.punchoutgp.gb.gp</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.film.reel.tvshow.skysoftsolution</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.aireel.app</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=co.shopney.zoukazjnmapp</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ai.chat.askchat.app</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.buffalo.softwave.yoga</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.inspironlabs.taxisanchalak</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=aiart.aiphoto.aiartgenerator</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.amo.gps.geo.map.gpscamera</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.grykuby.minesweeper</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.day.night.live.wallpapers</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.suvichar.photo</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.trdev.translt.ploet</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.dialo.great</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.antitheft.smartapp.donottouch.alarm.donttouchmyphone</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.dqh.funnylips.fallfilter</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.photoslideshow.videoeditorandvideomaker</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.aiart.ghiblistyle.generator</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.pixfunai.creativity.artistic.pixentertainment</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.nanagame.sevenfun</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.videodownload.vddwpro</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.adkrity.app</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=io.ionic.wts</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.gpscamera.locationstamp</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.apwouth.bhjiuru</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.clean.tool.speaker</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ghastep</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.faceplus.faceeditor.naturalbeauty</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.alnico.sangathan.app</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.lift.android.app</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.melooha.app</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=glip.studio.btx.android</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.photomusics.slideshow.videoeditor.videomaker</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.borgavakar.localpulse</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.app.scorescan.android</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.funnyapp4u.healthy.bloodpressure</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.astrotez.app</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.softswing.fluffyflip</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.reel.drama.downloader</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.storydek.entertainment</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.hdvideox.videoplayer</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=org.blmamxs.gninds.svdy</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=mt.driving.satelliteview.maps</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=files.filesexplorer.filesmanager</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ghost.detector.radar.finder.scanner</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.indogastmedia.curencyliverateconvert</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.lammatech.cameralocation.cameratimestamp</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.interesting.ai.reads.mentoring.chat.gpt.app</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.vsnewplay.ox3ys</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.clip.find.phone.aos</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.storage.junk.sparkclean.new</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.clearcredit.app.assess</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.invictaapro.app</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.flash.matchcard.gim</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.momogame.findphone1</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=shortdrama.film.tv.apps</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.castle.battle.match</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.livewallpaper.wallpaper4k.anime.ai</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.gpscamera.geotagginglocationonphotovideo</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.pianokeyboard.learnpiano.virtualpiano.easypiano.app</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.game.mxf</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.cfbfantasy.cfb_fantasy</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.igs.polyslots</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.gzqd.goddess</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.flashlight.strobelight.soslight</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.reelvideo.videodownloader</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.flyingcat.spades</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.mimsin.wordgame</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.location.sharing.fwhere.mapswithme.android</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=io.carx.CarX</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.zudo</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.Neon9puriy.lkkop.wor</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.hvlhsl3.jho.online</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.revia.aiart.aiphoto.aivideo.generator</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.capslock.zinglish</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.leifeng309wo.dleatedt3m</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.dashtoon.video.reels</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.moneymanager.expensetracker.moneytracker.budgetplanner</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.songn.est</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.cedargames.mysterytown</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.Jewel.towerflip</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.all.documen.treader.office.manager.filescanner</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.musgoqp.as12</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.reno.ai.interior.home.design</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.morbid_tech.morbid</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.fishing.yu.rush</t>
+  </si>
+  <si>
+    <t>https://flipkartworld.shop/</t>
+  </si>
+  <si>
+    <t>https://mituscouture.com/products/leher-pure-cotton-cord-set?variant=41540553474151</t>
+  </si>
+  <si>
+    <t>https://mituscouture.com/products/mita-maslin-pronted-cord-set?variant=41247148015719</t>
+  </si>
+  <si>
+    <t>https://www.justshop.shop/products/atemporal-warts-remover-cream</t>
+  </si>
+  <si>
+    <t>https://thekaashi.com/collections/rakhi</t>
+  </si>
+  <si>
+    <t>https://newwoffer.gtatens.com/offline2/</t>
+  </si>
+  <si>
+    <t>https://bioweb.live/1971430254</t>
+  </si>
+  <si>
+    <t>https://bioweb.live/8804450090</t>
+  </si>
+  <si>
+    <t>https://lapindor.in/products/the-barrier-glow-essential-duo</t>
+  </si>
+  <si>
+    <t>https://filipkaart-sale.shop/Toy/</t>
+  </si>
+  <si>
+    <t>https://meessho.sales-india.live/OFFER/lgnd/</t>
+  </si>
+  <si>
+    <t>https://poshpantsclub.com/collections/dresses</t>
+  </si>
+  <si>
+    <t>https://bioweb.live/9503839135</t>
+  </si>
+  <si>
+    <t>https://secret-descont.shop/o9dkwown/OFFER/iphone15/</t>
+  </si>
+  <si>
+    <t>https://orejewels.in/</t>
+  </si>
+  <si>
+    <t>https://loveablecreationsbymuskan.com/products/kaisha-luxe-kaftan-dress?_pos=2&amp;_psq=Kaish&amp;_ss=e&amp;_v=1.0</t>
+  </si>
+  <si>
+    <t>https://www.authorityoffashion.com/collections/intimate-sarees</t>
+  </si>
+  <si>
+    <t>https://cart.99outlet.shop/stiphone/</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/meira-jewellery-bhaiya-bhabhi-bhaiyabhabhi-69-assorted-kundan-mauli-thread-gold-finish-rakhi-chawal-roli-pack-greeting-card-set/p/itm383e0b4d0f0fb?pid=RAKHDU4PG7R8Y38P&amp;marketplace=FLIPKART&amp;cmpid=product.share.pp&amp;affid=growthte&amp;affExtParam1=ENKR20250716A1533201780&amp;affExtParam2=4514519</t>
+  </si>
+  <si>
+    <t>https://bioweb.live/371754028</t>
+  </si>
+  <si>
+    <t>https://www.pinklay.com/collections/womens-clothing-new-arrivals</t>
+  </si>
+  <si>
+    <t>https://under139sale.xyz/me/product1.php</t>
+  </si>
+  <si>
+    <t>https://flipckart-monsoon-shop.shop/closesale/</t>
+  </si>
+  <si>
+    <t>https://bioweb.live/4830202473</t>
+  </si>
+  <si>
+    <t>https://sabrinawlles.sbs/</t>
+  </si>
+  <si>
+    <t>https://pramaddapureluxury.in/Kamaya-Canvas-Tote-Bag-For-Women/catalogue/U3Va9T4_/VsLNWA21</t>
+  </si>
+  <si>
+    <t>https://big-billion-flipkart.0ffer.shop/Flipkart.com/index.html?AccessToken=7a4697dbe610327351049fd834007a54</t>
+  </si>
+  <si>
+    <t>https://dealmo.in/</t>
+  </si>
+  <si>
+    <t>https://o2hstore.com/</t>
+  </si>
+  <si>
+    <t>https://lirathingsbs.sbs/products/casual-backpack-women-large-capacity</t>
+  </si>
+  <si>
+    <t>https://offer.gtatens.com/5a4c2c1387/</t>
+  </si>
+  <si>
+    <t>https://2.dhamaka-sale.live/</t>
+  </si>
+  <si>
+    <t>https://lukecollections.com/products/luke-migraine-and-headache-relief-cap</t>
+  </si>
+  <si>
+    <t>https://bioweb.live/4408774182</t>
+  </si>
+  <si>
+    <t>https://bioweb.live/73754551</t>
+  </si>
+  <si>
+    <t>https://seodre.com/collections/all-products-1?fbclid=fbY2xjawLkL3RyWJ0</t>
+  </si>
+  <si>
+    <t>https://seodre.com/collections/all-products-1?fbclid=fbY2xjawLkL3dyWJ0</t>
+  </si>
+  <si>
+    <t>https://avnikk.com/collections/new-arrivals</t>
+  </si>
+  <si>
+    <t>https://qhanak.myshopify.com/products/gold-plated-om-diamond-pendant-and-chain?_pos=1&amp;_sid=ec536e285&amp;_ss=r</t>
+  </si>
+  <si>
+    <t>https://thealphamaleindia.com/collections/collection-110/products/isla-royal-shirt</t>
+  </si>
+  <si>
+    <t>https://elanawear.in/collections/new-arrival</t>
+  </si>
+  <si>
+    <t>https://houseofpureeco.com/products/co-ord-set-ivory-ivory</t>
+  </si>
+  <si>
+    <t>https://bioweb.live/5710790033</t>
+  </si>
+  <si>
+    <t>https://bioweb.live/1995279835</t>
+  </si>
+  <si>
+    <t>https://digikartel.com/crochet-bundle/?fbclid=IwZXh0bgNhZW0BMABhZGlkAAAGQiUtfRgBHpBfTTIpKX7z63A2vCa-wjFqCrCI-TXegscxew3AT0n6KRCzttTLq8_2Mnrc_aem_TKCMUXSEYgtFL7pzq2uueg&amp;utm_medium=paid&amp;utm_source=fb&amp;utm_id=6881150482128&amp;utm_content=6881150483528&amp;utm_term=6881150483328&amp;utm_campaign=6881150482128</t>
+  </si>
+  <si>
+    <t>https://babystreet.in/collections/silicone-feeding-sets</t>
+  </si>
+  <si>
+    <t>https://babystreet.in/collections/organic-cotton-clothing-essentials</t>
+  </si>
+  <si>
+    <t>https://t.me/+GvMtzbl4qLc4NTg1</t>
+  </si>
+  <si>
+    <t>https://shop.viralmarketingstars.com/offers/kjYejRpg/checkout?coupon_code=230OFF</t>
+  </si>
+  <si>
+    <t>https://strapden.in/products/shadow-dragon-denim-white?variant=50391119364394</t>
+  </si>
+  <si>
+    <t>https://big-billion.flipkartx.com/fahakan</t>
+  </si>
+  <si>
+    <t>https://bioweb.live/2907050640</t>
+  </si>
+  <si>
+    <t>https://secret-descont.shop/yiuujd/OFFER/iphone14r/</t>
+  </si>
+  <si>
+    <t>https://fksupermart.shop/shivam</t>
+  </si>
+  <si>
+    <t>https://urjaghar.com/products/dhan-yog-bracelet</t>
+  </si>
+  <si>
+    <t>https://bioweb.live/3327045520</t>
+  </si>
+  <si>
+    <t>https://secret-descont.shop/99BUDS/OFFER/buds/</t>
+  </si>
+  <si>
+    <t>https://bioweb.live/8073802929</t>
+  </si>
+  <si>
+    <t>https://happygiftings.com/products/metal-ring-platter-with-multicoloured-flowers</t>
+  </si>
+  <si>
+    <t>https://bioweb.live/7988600206</t>
   </si>
 </sst>
 </file>
@@ -670,7 +1141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A111"/>
+  <dimension ref="A1:A268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
@@ -1233,6 +1704,791 @@
         <v>110</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
